--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H2">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I2">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J2">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N2">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P2">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q2">
-        <v>27.89563540751816</v>
+        <v>28.94174345005</v>
       </c>
       <c r="R2">
-        <v>27.89563540751816</v>
+        <v>260.47569105045</v>
       </c>
       <c r="S2">
-        <v>0.209879296102964</v>
+        <v>0.2102995255635037</v>
       </c>
       <c r="T2">
-        <v>0.209879296102964</v>
+        <v>0.2102995255635038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H3">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I3">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J3">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N3">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P3">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q3">
-        <v>2.92213992709893</v>
+        <v>3.035327899941666</v>
       </c>
       <c r="R3">
-        <v>2.92213992709893</v>
+        <v>27.317951099475</v>
       </c>
       <c r="S3">
-        <v>0.02198539886453349</v>
+        <v>0.02205561729164923</v>
       </c>
       <c r="T3">
-        <v>0.02198539886453349</v>
+        <v>0.02205561729164923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H4">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I4">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J4">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N4">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P4">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q4">
-        <v>0.2428194441544229</v>
+        <v>0.3025448862166667</v>
       </c>
       <c r="R4">
-        <v>0.2428194441544229</v>
+        <v>2.72290397595</v>
       </c>
       <c r="S4">
-        <v>0.001826908520804236</v>
+        <v>0.002198383319333836</v>
       </c>
       <c r="T4">
-        <v>0.001826908520804236</v>
+        <v>0.002198383319333836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.39090845095356</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H5">
-        <v>1.39090845095356</v>
+        <v>4.309093</v>
       </c>
       <c r="I5">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J5">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N5">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P5">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q5">
-        <v>28.38846052916807</v>
+        <v>29.51063093767933</v>
       </c>
       <c r="R5">
-        <v>28.38846052916807</v>
+        <v>265.595678439114</v>
       </c>
       <c r="S5">
-        <v>0.2135871804412381</v>
+        <v>0.2144332353710674</v>
       </c>
       <c r="T5">
-        <v>0.2135871804412381</v>
+        <v>0.2144332353710674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39090845095356</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H6">
-        <v>1.39090845095356</v>
+        <v>4.309093</v>
       </c>
       <c r="I6">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J6">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N6">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P6">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q6">
-        <v>2.97376463268504</v>
+        <v>3.094991204818555</v>
       </c>
       <c r="R6">
-        <v>2.97376463268504</v>
+        <v>27.854920843367</v>
       </c>
       <c r="S6">
-        <v>0.02237380933490462</v>
+        <v>0.02248914904245116</v>
       </c>
       <c r="T6">
-        <v>0.02237380933490462</v>
+        <v>0.02248914904245116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39090845095356</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H7">
-        <v>1.39090845095356</v>
+        <v>4.309093</v>
       </c>
       <c r="I7">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J7">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N7">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O7">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P7">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q7">
-        <v>0.2471092737408863</v>
+        <v>0.3084917981748889</v>
       </c>
       <c r="R7">
-        <v>0.2471092737408863</v>
+        <v>2.776426183574</v>
       </c>
       <c r="S7">
-        <v>0.001859184050680352</v>
+        <v>0.002241595393462698</v>
       </c>
       <c r="T7">
-        <v>0.001859184050680352</v>
+        <v>0.002241595393462698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.36668277596016</v>
+        <v>1.397773</v>
       </c>
       <c r="H8">
-        <v>1.36668277596016</v>
+        <v>4.193319</v>
       </c>
       <c r="I8">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J8">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N8">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O8">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P8">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q8">
-        <v>27.89401417083938</v>
+        <v>28.717757869918</v>
       </c>
       <c r="R8">
-        <v>27.89401417083938</v>
+        <v>258.459820829262</v>
       </c>
       <c r="S8">
-        <v>0.209867098352026</v>
+        <v>0.2086719780967756</v>
       </c>
       <c r="T8">
-        <v>0.209867098352026</v>
+        <v>0.2086719780967756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.36668277596016</v>
+        <v>1.397773</v>
       </c>
       <c r="H9">
-        <v>1.36668277596016</v>
+        <v>4.193319</v>
       </c>
       <c r="I9">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J9">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N9">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O9">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P9">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q9">
-        <v>2.921970098365469</v>
+        <v>3.011836928095666</v>
       </c>
       <c r="R9">
-        <v>2.921970098365469</v>
+        <v>27.106532352861</v>
       </c>
       <c r="S9">
-        <v>0.02198412111858807</v>
+        <v>0.02188492473324253</v>
       </c>
       <c r="T9">
-        <v>0.02198412111858807</v>
+        <v>0.02188492473324253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36668277596016</v>
+        <v>1.397773</v>
       </c>
       <c r="H10">
-        <v>1.36668277596016</v>
+        <v>4.193319</v>
       </c>
       <c r="I10">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J10">
-        <v>0.2336780218152707</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N10">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O10">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P10">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q10">
-        <v>0.2428053319901566</v>
+        <v>0.3002034346046667</v>
       </c>
       <c r="R10">
-        <v>0.2428053319901566</v>
+        <v>2.701830911442</v>
       </c>
       <c r="S10">
-        <v>0.001826802344656625</v>
+        <v>0.002181369618553047</v>
       </c>
       <c r="T10">
-        <v>0.001826802344656625</v>
+        <v>0.002181369618553047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.33848812498121</v>
+        <v>1.34152</v>
       </c>
       <c r="H11">
-        <v>1.33848812498121</v>
+        <v>4.02456</v>
       </c>
       <c r="I11">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="J11">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N11">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O11">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P11">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q11">
-        <v>27.31856095829986</v>
+        <v>27.56201939632</v>
       </c>
       <c r="R11">
-        <v>27.31856095829986</v>
+        <v>248.05817456688</v>
       </c>
       <c r="S11">
-        <v>0.2055375423686755</v>
+        <v>0.2002740302297915</v>
       </c>
       <c r="T11">
-        <v>0.2055375423686755</v>
+        <v>0.2002740302297915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.33848812498121</v>
+        <v>1.34152</v>
       </c>
       <c r="H12">
-        <v>1.33848812498121</v>
+        <v>4.02456</v>
       </c>
       <c r="I12">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="J12">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N12">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O12">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P12">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q12">
-        <v>2.861689886641527</v>
+        <v>2.890626357626667</v>
       </c>
       <c r="R12">
-        <v>2.861689886641527</v>
+        <v>26.01563721864</v>
       </c>
       <c r="S12">
-        <v>0.02153058893619696</v>
+        <v>0.02100417179909722</v>
       </c>
       <c r="T12">
-        <v>0.02153058893619696</v>
+        <v>0.02100417179909722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.33848812498121</v>
+        <v>1.34152</v>
       </c>
       <c r="H13">
-        <v>1.33848812498121</v>
+        <v>4.02456</v>
       </c>
       <c r="I13">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="J13">
-        <v>0.2288572467367933</v>
+        <v>0.2233717830114097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N13">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O13">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P13">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q13">
-        <v>0.2377962606008716</v>
+        <v>0.2881218277866667</v>
       </c>
       <c r="R13">
-        <v>0.2377962606008716</v>
+        <v>2.59309645008</v>
       </c>
       <c r="S13">
-        <v>0.001789115431920833</v>
+        <v>0.00209358098252097</v>
       </c>
       <c r="T13">
-        <v>0.001789115431920833</v>
+        <v>0.00209358098252097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.385730612304905</v>
+        <v>0.4214396666666667</v>
       </c>
       <c r="H14">
-        <v>0.385730612304905</v>
+        <v>1.264319</v>
       </c>
       <c r="I14">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="J14">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.410013692638</v>
+        <v>20.545366</v>
       </c>
       <c r="N14">
-        <v>20.410013692638</v>
+        <v>61.636098</v>
       </c>
       <c r="O14">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="P14">
-        <v>0.8981037100610688</v>
+        <v>0.8965950288338865</v>
       </c>
       <c r="Q14">
-        <v>7.872767078812752</v>
+        <v>8.658632198584668</v>
       </c>
       <c r="R14">
-        <v>7.872767078812752</v>
+        <v>77.92768978726201</v>
       </c>
       <c r="S14">
-        <v>0.05923259279616511</v>
+        <v>0.06291625957274828</v>
       </c>
       <c r="T14">
-        <v>0.05923259279616511</v>
+        <v>0.06291625957274828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.385730612304905</v>
+        <v>0.4214396666666667</v>
       </c>
       <c r="H15">
-        <v>0.385730612304905</v>
+        <v>1.264319</v>
       </c>
       <c r="I15">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="J15">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.13800170000141</v>
+        <v>2.154739666666666</v>
       </c>
       <c r="N15">
-        <v>2.13800170000141</v>
+        <v>6.464219</v>
       </c>
       <c r="O15">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836461</v>
       </c>
       <c r="P15">
-        <v>0.09407868548274155</v>
+        <v>0.09403234157836463</v>
       </c>
       <c r="Q15">
-        <v>0.8246927048504719</v>
+        <v>0.9080927668734444</v>
       </c>
       <c r="R15">
-        <v>0.8246927048504719</v>
+        <v>8.172834901861002</v>
       </c>
       <c r="S15">
-        <v>0.006204767228518412</v>
+        <v>0.006598478711924483</v>
       </c>
       <c r="T15">
-        <v>0.006204767228518412</v>
+        <v>0.006598478711924484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.385730612304905</v>
+        <v>0.4214396666666667</v>
       </c>
       <c r="H16">
-        <v>0.385730612304905</v>
+        <v>1.264319</v>
       </c>
       <c r="I16">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="J16">
-        <v>0.06595295413281106</v>
+        <v>0.07017243855855113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.177660343907952</v>
+        <v>0.2147726666666667</v>
       </c>
       <c r="N16">
-        <v>0.177660343907952</v>
+        <v>0.6443180000000001</v>
       </c>
       <c r="O16">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="P16">
-        <v>0.007817604456189576</v>
+        <v>0.009372629587748921</v>
       </c>
       <c r="Q16">
-        <v>0.06852903323791432</v>
+        <v>0.09051372104911114</v>
       </c>
       <c r="R16">
-        <v>0.06852903323791432</v>
+        <v>0.8146234894420002</v>
       </c>
       <c r="S16">
-        <v>0.0005155941081275304</v>
+        <v>0.0006577002738783695</v>
       </c>
       <c r="T16">
-        <v>0.0005155941081275304</v>
+        <v>0.0006577002738783695</v>
       </c>
     </row>
   </sheetData>
